--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,16 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>hell</t>
   </si>
   <si>
     <t>collapse</t>
@@ -58,223 +64,241 @@
     <t>forced</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>died</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>low</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>low</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -632,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -751,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -801,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,16 +846,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,16 +896,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -901,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8595890410958904</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -1001,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8260869565217391</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,16 +1146,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.9069767441860465</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8875</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6862745098039216</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,31 +1293,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>0.8873239436619719</v>
+      </c>
+      <c r="L14">
+        <v>126</v>
+      </c>
+      <c r="M14">
+        <v>126</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>16</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>32</v>
-      </c>
-      <c r="M14">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6772486772486772</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C15">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6744186046511628</v>
+        <v>0.6821705426356589</v>
       </c>
       <c r="C16">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D16">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.8802816901408451</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6610169491525424</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.65625</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -1469,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.8679245283018868</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8620689655172413</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6129032258064516</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K20">
         <v>0.8414634146341463</v>
@@ -1601,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5945945945945946</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5906040268456376</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C22">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.7948717948717948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1725,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5818181818181818</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1775,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5694444444444444</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C24">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5641025641025641</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1925,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4909090909090909</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7352941176470589</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L27">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="M27">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.7307692307692307</v>
+        <v>0.725</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2025,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3466666666666667</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.72</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2075,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3375</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.7152542372881356</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2987012987012987</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K31">
         <v>0.7142857142857143</v>
@@ -2151,37 +2175,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2936507936507937</v>
+        <v>0.1849865951742627</v>
       </c>
       <c r="C32">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>69</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>304</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D32">
-        <v>74</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>178</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2225,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1715817694369973</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.698744769874477</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L33">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,167 +2275,263 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005332715047530721</v>
+        <v>0.01323007421748951</v>
       </c>
       <c r="C34">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>0.16</v>
+      </c>
+      <c r="F34">
+        <v>0.84</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>3058</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.01122019635343618</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0.14</v>
+      </c>
+      <c r="F35">
+        <v>0.86</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2115</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.694560669456067</v>
+      </c>
+      <c r="L35">
+        <v>166</v>
+      </c>
+      <c r="M35">
+        <v>166</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.008431703204047217</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>0.26</v>
+      </c>
+      <c r="F36">
+        <v>0.74</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2352</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L36">
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <v>65</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.004624045034177724</v>
+      </c>
+      <c r="C37">
         <v>23</v>
       </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>0.39</v>
-      </c>
-      <c r="F34">
-        <v>0.61</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>4290</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L34">
-        <v>24</v>
-      </c>
-      <c r="M34">
-        <v>24</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L35">
+      <c r="D37">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>0.49</v>
+      </c>
+      <c r="F37">
+        <v>0.51</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4951</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L37">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.003695779031316865</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>5122</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>22</v>
-      </c>
-      <c r="M35">
-        <v>22</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.6629213483146067</v>
-      </c>
-      <c r="L36">
-        <v>59</v>
-      </c>
-      <c r="M36">
-        <v>59</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L37">
-        <v>43</v>
-      </c>
-      <c r="M37">
-        <v>43</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L38">
-        <v>62</v>
-      </c>
-      <c r="M38">
-        <v>62</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2423,21 +2543,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.6444444444444445</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2449,21 +2569,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.6274509803921569</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2475,21 +2595,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.547945205479452</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2501,21 +2621,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.5087719298245614</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2527,21 +2647,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.4761904761904762</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2553,21 +2673,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.4262295081967213</v>
+        <v>0.484375</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2579,21 +2699,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.4067796610169492</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2605,21 +2725,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.3974358974358974</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2631,33 +2751,189 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>0.296875</v>
+        <v>0.0350584307178631</v>
       </c>
       <c r="L48">
+        <v>42</v>
+      </c>
+      <c r="M48">
+        <v>44</v>
+      </c>
+      <c r="N48">
+        <v>0.95</v>
+      </c>
+      <c r="O48">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49">
+        <v>0.03473491773308958</v>
+      </c>
+      <c r="L49">
         <v>19</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>19</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50">
+        <v>0.01161483701760959</v>
+      </c>
+      <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>35</v>
+      </c>
+      <c r="N50">
+        <v>0.89</v>
+      </c>
+      <c r="O50">
+        <v>0.11</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51">
+        <v>0.009076682316118936</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <v>0.83</v>
+      </c>
+      <c r="O51">
+        <v>0.17</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52">
+        <v>0.004663816556548776</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53">
+        <v>0.004423889000603257</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
         <v>45</v>
+      </c>
+      <c r="N53">
+        <v>0.49</v>
+      </c>
+      <c r="O53">
+        <v>0.51</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54">
+        <v>0.00440324449594438</v>
+      </c>
+      <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+      <c r="N54">
+        <v>0.59</v>
+      </c>
+      <c r="O54">
+        <v>0.41</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4296</v>
       </c>
     </row>
   </sheetData>
